--- a/day_8/samad.xlsx
+++ b/day_8/samad.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>colaa</t>
+          <t>my_col</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>colbb</t>
+          <t>your_col</t>
         </is>
       </c>
     </row>
